--- a/data/tony/excel/12345679_2025_invoices.xlsx
+++ b/data/tony/excel/12345679_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,210 +711,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>400000000000005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ΑΛΠ</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8350</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>11/10/2025</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3,50</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>3,50</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>8350</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>400000000000006</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ΑΛΠ</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36671</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>36671</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>400000000000007</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ΑΛΠ</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8350</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>11/10/2025</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3,50</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>3,50</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>8350</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>400000000000008</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ΑΛΠ</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8350</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>11/10/2025</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3,50</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>3,50</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>8350</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/tony/excel/12345679_2025_invoices.xlsx
+++ b/data/tony/excel/12345679_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,60 +657,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>400000000000003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>082657798</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ΝΙΚΟΛΑΟΥ ΙΩΑΝΝΗΣ ΚΑΙ ΣΙΑ ΟΕ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ΑΛΠ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87920</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>08/10/2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>70,00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>70,00</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>87920</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
